--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,73 +22,115 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>007109</t>
+  </si>
+  <si>
+    <t>007178</t>
+  </si>
+  <si>
     <t>006658</t>
   </si>
   <si>
+    <t>005702</t>
+  </si>
+  <si>
+    <t>007216</t>
+  </si>
+  <si>
     <t>006659</t>
   </si>
   <si>
-    <t>007109</t>
-  </si>
-  <si>
-    <t>007178</t>
-  </si>
-  <si>
-    <t>007216</t>
-  </si>
-  <si>
-    <t>005702</t>
+    <t>南方沪港深核心优势混合</t>
+  </si>
+  <si>
+    <t>浙商港股通中华交易服务预期高股息指数增强A</t>
   </si>
   <si>
     <t>财通中证香港红利等权投资指数A</t>
   </si>
   <si>
+    <t>恒生前海港股通高股息低波动指数</t>
+  </si>
+  <si>
+    <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+  </si>
+  <si>
     <t>财通中证香港红利等权投资指数C</t>
   </si>
   <si>
-    <t>南方沪港深核心优势混合</t>
-  </si>
-  <si>
-    <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-  </si>
-  <si>
-    <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-  </si>
-  <si>
-    <t>恒生前海港股通高股息低波动指数</t>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>80.82</t>
+  </si>
+  <si>
+    <t>92.90</t>
   </si>
   <si>
     <t>93.40</t>
   </si>
   <si>
-    <t>80.82</t>
-  </si>
-  <si>
-    <t>92.90</t>
-  </si>
-  <si>
     <t>94.25</t>
   </si>
   <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>4.43</t>
+  </si>
+  <si>
     <t>3.44</t>
   </si>
   <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
     <t>2.24</t>
+  </si>
+  <si>
+    <t>0.1221</t>
+  </si>
+  <si>
+    <t>0.0523</t>
+  </si>
+  <si>
+    <t>0.0079</t>
+  </si>
+  <si>
+    <t>0.0074</t>
+  </si>
+  <si>
+    <t>0.0035</t>
+  </si>
+  <si>
+    <t>0.0010</t>
   </si>
 </sst>
 </file>
@@ -446,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,125 +510,167 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>007109</t>
-  </si>
-  <si>
-    <t>007178</t>
-  </si>
-  <si>
-    <t>006658</t>
-  </si>
-  <si>
-    <t>005702</t>
-  </si>
-  <si>
-    <t>007216</t>
-  </si>
-  <si>
-    <t>006659</t>
-  </si>
-  <si>
-    <t>南方沪港深核心优势混合</t>
-  </si>
-  <si>
-    <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-  </si>
-  <si>
-    <t>财通中证香港红利等权投资指数A</t>
-  </si>
-  <si>
-    <t>恒生前海港股通高股息低波动指数</t>
-  </si>
-  <si>
-    <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-  </si>
-  <si>
-    <t>财通中证香港红利等权投资指数C</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>80.82</t>
-  </si>
-  <si>
-    <t>92.90</t>
-  </si>
-  <si>
-    <t>93.40</t>
-  </si>
-  <si>
-    <t>94.25</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>0.1221</t>
-  </si>
-  <si>
-    <t>0.0523</t>
-  </si>
-  <si>
-    <t>0.0079</t>
-  </si>
-  <si>
-    <t>0.0074</t>
-  </si>
-  <si>
-    <t>0.0035</t>
-  </si>
-  <si>
-    <t>0.0010</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,193 +446,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,2674 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.2034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.6058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8662</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6402</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1867</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7473</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5515</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5487</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5046</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3699,7 +3700,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>81.25</t>
@@ -3715,6 +3715,90 @@
       </c>
       <c r="H70" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3728,7 +3729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3739,17 +3740,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3759,14 +3780,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.05</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.4362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3775,14 +3818,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.3203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3791,13 +3856,3888 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.6832</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8539</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5608</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4957</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2800</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2750</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2750</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2428</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2324</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9485</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9168</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7501</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7307</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7116</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6877</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6839</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6637</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4945</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4725</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4480</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2799</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7652,7 +7653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7663,17 +7664,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7683,14 +7704,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>102</v>
-      </c>
-      <c r="D2" t="n">
-        <v>77.08</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.9095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7699,14 +7742,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>69</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.05</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7715,14 +7780,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7731,13 +7818,1253 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8956</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7774</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7379</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4957</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8963,7 +8964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8974,17 +8975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8994,14 +9015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.37</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.0298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9010,14 +9053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="n">
-        <v>77.08</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.2076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9026,14 +9091,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.05</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9042,14 +9129,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.18</v>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9058,13 +9167,851 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007109</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方沪港深核心优势混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1221</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0523</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
+      <c r="D7" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>224.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>15.0298</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>001875</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>93.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>8.2076</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>010717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>前海开源优质企业6个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>62.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>5.8075</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -905,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>1.4614</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -943,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>001874</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.9562</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -981,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>013270</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>前海开源聚利一年持有混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.7616</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1019,36 +867,644 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>010718</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>前海开源优质企业6个月持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.6886</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,7 +1539,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1123,26 +1579,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>166.29</t>
+          <t>258.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13.2034</t>
+          <t>16.9095</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1161,22 +1617,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>117.43</t>
+          <t>82.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.6058</t>
+          <t>7.7641</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1199,22 +1655,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.00</t>
+          <t>58.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.5853</t>
+          <t>5.2961</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1237,26 +1693,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.48</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.9330</t>
+          <t>1.4347</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1275,26 +1731,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70.93</t>
+          <t>39.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.21</t>
+          <t>86.45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.3762</t>
+          <t>1.1592</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1303,36 +1759,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012079</t>
+          <t>001874</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银新能源精选混合型证券投资基金</t>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.60</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.8662</t>
+          <t>0.8956</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1341,36 +1797,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009861</t>
+          <t>004263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合A</t>
+          <t>华安沪港深机会灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32.87</t>
+          <t>13.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.7454</t>
+          <t>0.7774</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1389,26 +1845,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>33.68</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>83.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.6402</t>
+          <t>0.7379</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1427,26 +1883,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.68</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>83.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.6402</t>
+          <t>0.7379</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1455,36 +1911,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008546</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合A</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>37.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.1867</t>
+          <t>0.6795</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1493,36 +1949,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001874</t>
+          <t>013270</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
+          <t>前海开源聚利一年持有混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>80.39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.0764</t>
+          <t>0.6568</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1531,36 +1987,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011251</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安聚嘉精选混合A</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>59.25</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>86.72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.0191</t>
+          <t>0.6445</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1569,36 +2025,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>010718</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>前海开源优质企业6个月持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20.80</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.0088</t>
+          <t>0.6335</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1607,32 +2063,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>富兰克林国海估值优势灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>87.22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.7837</t>
+          <t>0.5382</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1645,36 +2101,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006039</t>
+          <t>008546</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
+          <t>南方产业优势两年持有期混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.33</t>
+          <t>74.23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.7473</t>
+          <t>0.4957</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1683,32 +2139,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>010751</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>宝盈优质成长混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>41.43</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.6587</t>
+          <t>0.4924</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1721,36 +2177,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012475</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>平安优质企业混合型证券投资基金A</t>
+          <t>前海开源新兴产业混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32.88</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28.60</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.5853</t>
+          <t>0.3127</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1759,36 +2215,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009152</t>
+          <t>013123</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南方瑞盛三年持有期混合A</t>
+          <t>汇添富精选核心优势一年持有混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.69</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>66.61</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.5758</t>
+          <t>0.2583</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1797,32 +2253,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011740</t>
+          <t>009152</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时成长精选混合A</t>
+          <t>南方瑞盛三年持有期混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.83</t>
+          <t>77.05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.5623</t>
+          <t>0.2396</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1835,36 +2291,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>77.36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.5515</t>
+          <t>0.1684</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1873,36 +2329,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011252</t>
+          <t>005228</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华安聚嘉精选混合C</t>
+          <t>汇添富港股通专注成长混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>31.90</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>80.11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.5487</t>
+          <t>0.1638</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1911,36 +2367,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>012218</t>
+          <t>010752</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时乐享混合型证券投资基金A</t>
+          <t>宝盈优质成长混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>26.82</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.5046</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1949,36 +2405,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>009781</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>南方产业优势两年持有期混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>74.23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.4925</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1987,36 +2443,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.4171</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2025,36 +2481,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006696</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.01</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.3881</t>
+          <t>0.0396</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2063,36 +2519,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009857</t>
+          <t>012589</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>83.40</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.3604</t>
+          <t>0.0371</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2101,36 +2557,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010126</t>
+          <t>013271</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平安价值成长混合A</t>
+          <t>前海开源聚利一年持有混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>80.39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.3398</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2139,36 +2595,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.3253</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2177,36 +2633,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001518</t>
+          <t>009153</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>万家瑞兴灵活配置混合</t>
+          <t>南方瑞盛三年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>77.05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.2458</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2215,36 +2671,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008132</t>
+          <t>013124</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏华价值驱动混合</t>
+          <t>汇添富精选核心优势一年持有混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>90.14</t>
+          <t>66.61</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.2452</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2253,32 +2709,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011315</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>80.63</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.2057</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2291,36 +2747,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>012315</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1404</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2329,1394 +2785,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009781</t>
+          <t>012316</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合C</t>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1328</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>011741</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>80.83</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1097</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010987</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中融鑫锐研究精选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>010127</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>平安价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>85.60</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1034</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007893</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>平安估值精选混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0879</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0817</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>89.64</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>004292</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>鹏华沪深港互联网股票</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0607</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>012589</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>26.65</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009862</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009153</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>南方瑞盛三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0466</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0414</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007894</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>平安估值精选混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>77.20</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>012476</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>平安优质企业混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>28.60</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>83.40</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>010988</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>中融鑫锐研究精选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>86.77</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>74.18</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>79.48</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>012219</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>博时乐享混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>26.82</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>77.20</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>011647</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>011648</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7654,7 +6751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7675,7 +6772,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -7715,26 +6812,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>258.16</t>
+          <t>166.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16.9095</t>
+          <t>13.2034</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7753,22 +6850,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.95</t>
+          <t>117.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.7641</t>
+          <t>9.6058</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -7791,22 +6888,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>58.52</t>
+          <t>81.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.2961</t>
+          <t>6.5853</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -7829,26 +6926,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4347</t>
+          <t>2.9330</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7867,26 +6964,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>39.43</t>
+          <t>70.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.45</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1592</t>
+          <t>2.3762</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -7895,36 +6992,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001874</t>
+          <t>012079</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>48.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8956</t>
+          <t>1.8662</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -7933,36 +7030,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004263</t>
+          <t>009861</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安沪港深机会灵活配置混合</t>
+          <t>鹏华新兴成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>32.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7774</t>
+          <t>1.7454</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -7981,26 +7078,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>33.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.59</t>
+          <t>80.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7379</t>
+          <t>1.6402</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -8019,26 +7116,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>33.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.59</t>
+          <t>80.04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7379</t>
+          <t>1.6402</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -8047,36 +7144,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>008546</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>南方产业优势两年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>37.54</t>
+          <t>30.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6795</t>
+          <t>1.1867</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -8085,36 +7182,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013270</t>
+          <t>001874</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源聚利一年持有混合A</t>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.39</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.6568</t>
+          <t>1.0764</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -8123,36 +7220,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>011251</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>华安聚嘉精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>59.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>78.75</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.6445</t>
+          <t>1.0191</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -8161,36 +7258,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>20.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6335</t>
+          <t>1.0088</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -8199,32 +7296,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006039</t>
+          <t>010718</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
+          <t>前海开源优质企业6个月持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17.25</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.5382</t>
+          <t>0.7837</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -8237,36 +7334,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008546</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合A</t>
+          <t>富兰克林国海估值优势灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24.91</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>83.33</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4957</t>
+          <t>0.7473</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -8275,32 +7372,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010751</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>宝盈优质成长混合A</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>41.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.4924</t>
+          <t>0.6587</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -8313,36 +7410,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>012475</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合</t>
+          <t>平安优质企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>32.88</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>28.60</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3127</t>
+          <t>0.5853</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -8351,36 +7448,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>013123</t>
+          <t>009152</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇添富精选核心优势一年持有混合A</t>
+          <t>南方瑞盛三年持有期混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>66.61</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.2583</t>
+          <t>0.5758</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -8389,32 +7486,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009152</t>
+          <t>011740</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>南方瑞盛三年持有期混合A</t>
+          <t>博时成长精选混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>77.05</t>
+          <t>80.83</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2396</t>
+          <t>0.5623</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -8427,36 +7524,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>77.36</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1684</t>
+          <t>0.5515</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -8465,36 +7562,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005228</t>
+          <t>011252</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇添富港股通专注成长混合</t>
+          <t>华安聚嘉精选混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>31.90</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>78.75</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1638</t>
+          <t>0.5487</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -8503,36 +7600,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010752</t>
+          <t>012218</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>宝盈优质成长混合C</t>
+          <t>博时乐享混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>16.07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>26.82</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.5046</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -8541,36 +7638,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009781</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合C</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0561</t>
+          <t>0.4925</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -8579,36 +7676,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>006595</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>广发港股通优质增长混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>91.04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.4171</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -8617,36 +7714,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>006696</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>86.89</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.3881</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -8655,36 +7752,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>012589</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>83.40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0371</t>
+          <t>0.3604</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -8693,36 +7790,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>013271</t>
+          <t>010126</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>前海开源聚利一年持有混合C</t>
+          <t>平安价值成长混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.39</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0365</t>
+          <t>0.3398</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -8731,36 +7828,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>87.86</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.3253</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -8769,36 +7866,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009153</t>
+          <t>001518</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南方瑞盛三年持有期混合C</t>
+          <t>万家瑞兴灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>77.05</t>
+          <t>86.18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.2458</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -8807,36 +7904,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>013124</t>
+          <t>008132</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>汇添富精选核心优势一年持有混合C</t>
+          <t>鹏华价值驱动混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>66.61</t>
+          <t>90.14</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.2452</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -8845,32 +7942,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>011315</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>80.63</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.2057</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -8883,36 +7980,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>012315</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>83.49</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.1404</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -8921,35 +8018,1394 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>012316</t>
+          <t>009781</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+          <t>南方产业优势两年持有期混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>10</v>
       </c>
     </row>
@@ -8964,7 +9420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8985,7 +9441,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -9015,36 +9471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>224.66</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15.0298</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9053,36 +9509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001875</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深优势精选灵活配置混合</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.2076</t>
+          <t>0.0595</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9091,36 +9547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.92</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.8075</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -9129,36 +9585,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4614</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9167,36 +9623,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001874</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9562</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -9205,36 +9661,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013270</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源聚利一年持有混合A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7616</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -9243,644 +9699,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6886</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012588</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>32.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6417</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010751</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈优质成长混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4600</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2301</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002653</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰康沪港深精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010752</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈优质成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0626</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005646</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中海沪港深多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>013271</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源聚利一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012589</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011871</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源沪港深优势精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>012711</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004403</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004404</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9894,128 +9742,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.8</v>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.37</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>102</v>
-      </c>
-      <c r="D4" t="n">
-        <v>77.08</v>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>69</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.05</v>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.18</v>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.19</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>34.8</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>41.37</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>77.08</v>
+        <v>41.37</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>56.05</v>
+        <v>77.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>56.05</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -583,6 +600,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5955</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5415</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1512,7 +2535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2822,7 +3845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6745,7 +7768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9414,7 +10437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9736,7 +10759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00836-华润电力.xlsx
+++ b/数据整理/stocks/港股/00836-华润电力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>26.24</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>34.8</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>41.37</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>77.08</v>
+        <v>41.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
-        <v>56.05</v>
+        <v>77.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>56.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -600,6 +617,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.4489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>105.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1605,7 +2886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2535,7 +3816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3845,7 +5126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7768,7 +9049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10437,7 +11718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10759,7 +12040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
